--- a/resources/ClinicianAccountRole.xlsx
+++ b/resources/ClinicianAccountRole.xlsx
@@ -147,13 +147,13 @@
     <t>login</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/md-content/div/md-content/div/div/div/div[1]/button[2]/md-icon</t>
   </si>
   <si>
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/div[11]/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A2:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1"/>
@@ -529,8 +529,8 @@
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>

--- a/resources/ClinicianAccountRole.xlsx
+++ b/resources/ClinicianAccountRole.xlsx
@@ -21,9 +21,6 @@
     <t>Clinician List</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[5]/button/md-icon</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -153,7 +150,10 @@
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/div[11]/md-list-item/div/button</t>
   </si>
   <si>
-    <t>Scheduler</t>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Clinicians List"]</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A2:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1"/>
@@ -504,13 +504,13 @@
   <sheetData>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -561,13 +561,13 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -581,27 +581,27 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -635,13 +635,13 @@
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -695,38 +695,38 @@
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -740,13 +740,13 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -760,13 +760,13 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -780,13 +780,13 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -820,38 +820,38 @@
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -945,38 +945,38 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1070,38 +1070,38 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1195,38 +1195,38 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1320,38 +1320,38 @@
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1445,38 +1445,38 @@
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -1570,38 +1570,38 @@
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -1695,38 +1695,38 @@
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ClinicianAccountRole.xlsx
+++ b/resources/ClinicianAccountRole.xlsx
@@ -36,9 +36,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>rd1</t>
-  </si>
-  <si>
     <t>Select first result</t>
   </si>
   <si>
@@ -75,57 +72,30 @@
     <t>visible</t>
   </si>
   <si>
-    <t>pta1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
   </si>
   <si>
-    <t>rn1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
   </si>
   <si>
-    <t>lvn1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
   </si>
   <si>
-    <t>cota1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[5]</t>
   </si>
   <si>
-    <t>pt1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[6]</t>
   </si>
   <si>
-    <t>ot1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[7]</t>
   </si>
   <si>
-    <t>st1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[8]</t>
   </si>
   <si>
-    <t>msw1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[9]</t>
   </si>
   <si>
-    <t>chha1</t>
-  </si>
-  <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[10]</t>
   </si>
   <si>
@@ -154,6 +124,36 @@
   </si>
   <si>
     <t>//button[@aria-label="Clinicians List"]</t>
+  </si>
+  <si>
+    <t>rd3</t>
+  </si>
+  <si>
+    <t>pta3</t>
+  </si>
+  <si>
+    <t>rn3</t>
+  </si>
+  <si>
+    <t>lvn3</t>
+  </si>
+  <si>
+    <t>cota3</t>
+  </si>
+  <si>
+    <t>pt3</t>
+  </si>
+  <si>
+    <t>ot3</t>
+  </si>
+  <si>
+    <t>st3</t>
+  </si>
+  <si>
+    <t>msw3</t>
+  </si>
+  <si>
+    <t>chha3</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1"/>
@@ -504,13 +504,13 @@
   <sheetData>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -590,15 +590,15 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -715,15 +715,15 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -820,13 +820,13 @@
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -840,15 +840,15 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -965,15 +965,15 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1090,15 +1090,15 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1215,15 +1215,15 @@
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1</v>
@@ -1320,13 +1320,13 @@
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1340,15 +1340,15 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1465,15 +1465,15 @@
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1590,15 +1590,15 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
@@ -1715,15 +1715,15 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>1</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ClinicianAccountRole.xlsx
+++ b/resources/ClinicianAccountRole.xlsx
@@ -126,34 +126,34 @@
     <t>//button[@aria-label="Clinicians List"]</t>
   </si>
   <si>
-    <t>rd3</t>
-  </si>
-  <si>
-    <t>pta3</t>
-  </si>
-  <si>
-    <t>rn3</t>
-  </si>
-  <si>
-    <t>lvn3</t>
-  </si>
-  <si>
-    <t>cota3</t>
-  </si>
-  <si>
-    <t>pt3</t>
-  </si>
-  <si>
-    <t>ot3</t>
-  </si>
-  <si>
-    <t>st3</t>
-  </si>
-  <si>
-    <t>msw3</t>
-  </si>
-  <si>
-    <t>chha3</t>
+    <t>rd4</t>
+  </si>
+  <si>
+    <t>pta4</t>
+  </si>
+  <si>
+    <t>rn4</t>
+  </si>
+  <si>
+    <t>lvn4</t>
+  </si>
+  <si>
+    <t>cota4</t>
+  </si>
+  <si>
+    <t>pt4</t>
+  </si>
+  <si>
+    <t>ot4</t>
+  </si>
+  <si>
+    <t>st4</t>
+  </si>
+  <si>
+    <t>msw4</t>
+  </si>
+  <si>
+    <t>chha4</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1"/>
